--- a/WGRDBESstockCoord/format/RCEF_v15.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{E525D357-FFD5-4019-9DC1-209B7D00405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21771AF2-56E3-4AD4-BF3A-F05371C76DC6}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{E525D357-FFD5-4019-9DC1-209B7D00405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B87C93-C94D-4BA4-9E46-2093155D52A2}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="683" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="212">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -1064,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1118,35 +1118,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1489,9 +1467,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1507,8 +1485,8 @@
     <col min="12" max="12" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -1516,1204 +1494,685 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="H5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="H6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="H7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="H8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="H9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="H10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="H11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="H12" s="21"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="H13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="H14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="H15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="28" t="s">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="27" t="s">
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="28" t="s">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="28" t="s">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28" t="s">
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="28" t="s">
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="28" t="s">
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="28" t="s">
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="28" t="s">
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="28" t="s">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="28" t="s">
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="28" t="s">
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="28" t="s">
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="28" t="s">
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="28" t="s">
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="28" t="s">
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="28" t="s">
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="28" t="s">
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="28" t="s">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="28" t="s">
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="28" t="s">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="28" t="s">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="28" t="s">
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="28" t="s">
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="28" t="s">
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" t="s">
         <v>64</v>
       </c>
-      <c r="I48" s="31"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="26"/>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I50" s="32"/>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="26"/>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="26"/>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="26"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I55" s="26"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="26"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="26"/>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="26"/>
-    </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="26"/>
-    </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="26"/>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="26"/>
-    </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="26"/>
-    </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="26"/>
-    </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="26"/>
-    </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="26"/>
-    </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="26"/>
-    </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="26"/>
-    </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G78" s="33"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-    </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="33"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-    </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="31"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-    </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G81" s="31"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-    </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G82" s="31"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-    </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G82" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4242,10 +3701,10 @@
       <c r="A12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="12"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
@@ -4253,7 +3712,7 @@
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -4636,7 +4095,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="6"/>
@@ -5117,7 +4576,7 @@
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5134,7 +4593,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -5152,10 +4611,10 @@
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5180,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B54"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5663,59 +5122,74 @@
         <v>Age, ForkLength, LengthCarapace, LengthLowerJawFork, LengthMantle, LengthMaximumShell, LengthPinchedTail, LengthPreAnal, LengthPreCaudal, LengthStandard, LengthTail, LengthTotal, LengthWingSpan, WidthCarapace, WidthMaximumShell</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="26" t="s">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="26" t="s">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="26" t="s">
+      <c r="B48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
+      <c r="B49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="26" t="s">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="26" t="s">
+      <c r="B51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="26" t="s">
+      <c r="B52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="26" t="s">
+      <c r="B53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="26" t="s">
+      <c r="B54" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5725,6 +5199,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5734,15 +5217,6 @@
     <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5923,19 +5397,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
